--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425F7B58-C4BE-4B0E-A3C5-56BADEF3561D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE42A62-B97F-49CA-BCB6-BCD537E5AD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{3DFCB72E-3809-4251-B014-D9AC399EB601}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{69976056-12D6-450C-B849-CB911F9E1881}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2DE820-E6B0-4B10-85A8-D035EBE3801B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B622C2-7B47-47B2-A4F3-A62FDC4BBE94}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
